--- a/results/tables/table_S2.xlsx
+++ b/results/tables/table_S2.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass composition" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Media conditions" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Additional Comparison Metrics" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Incuded Stickland reactions" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="548">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1555,6 +1556,117 @@
   </si>
   <si>
     <t xml:space="preserve">agora_R20291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxidative:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Oxoisocaproate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isovaleryl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Methyl-2-oxobutanoate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isobutyryl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isoleucine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Methyl-2-oxopentanoate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Methylbutyryl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylpyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Phenylacetyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-hydroxyphenylpyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Hydroxyphenylacetyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-OH-phenylacetate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prephenate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-Hydroxyphenylpyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reductive:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Aminovalerate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Methyl-2-oxopentanoate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Hydroxyisocaproate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-hydroxyisocaproyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isocaproyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aspartate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxaloacetate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Malonyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-Oxopropanoate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hexadecenoate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glutamate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Threonine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Oxobutyrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propionyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-Acetyl-L-serine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*Several other AA feed into replenishing intermediates in these processes</t>
   </si>
 </sst>
 </file>
@@ -1597,11 +1709,13 @@
       <sz val="10"/>
       <name val="Courier New"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1674,7 +1788,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1735,6 +1849,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1758,7 +1888,7 @@
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.47"/>
@@ -2389,7 +2519,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.73"/>
@@ -11318,11 +11448,11 @@
   </sheetPr>
   <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.01"/>
@@ -11332,11 +11462,11 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="7.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="6.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="26.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="16.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="19.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="21.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="11.3"/>
@@ -11944,6 +12074,507 @@
       <c r="P12" s="0" t="n">
         <v>47.8</v>
       </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:L21"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="25.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.89"/>
+  </cols>
+  <sheetData>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>514</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>515</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="17" t="s">
+        <v>516</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>517</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>518</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="17" t="s">
+        <v>519</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>520</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>521</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>348</v>
+      </c>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>522</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>523</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>525</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0"/>
+      <c r="E9" s="0"/>
+      <c r="G9" s="0"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="C10" s="16"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="17" t="s">
+        <v>530</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>531</v>
+      </c>
+      <c r="E11" s="16"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>532</v>
+      </c>
+      <c r="E12" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="17" t="s">
+        <v>512</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>533</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>535</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="K13" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="L13" s="17" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="17" t="s">
+        <v>226</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="E14" s="16"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>524</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="17" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="I16" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="J16" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="K16" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="17" t="s">
+        <v>542</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>538</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>539</v>
+      </c>
+      <c r="G17" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>540</v>
+      </c>
+      <c r="I17" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="17" t="s">
+        <v>543</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>544</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F18" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>450</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>545</v>
+      </c>
+      <c r="J18" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="K18" s="17" t="s">
+        <v>374</v>
+      </c>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>546</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="G19" s="16"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="4"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="4"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17" t="s">
+        <v>547</v>
+      </c>
+      <c r="E21" s="16"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/results/tables/table_S2.xlsx
+++ b/results/tables/table_S2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Biomass composition" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="548">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -1564,7 +1564,7 @@
     <t xml:space="preserve">Leucine</t>
   </si>
   <si>
-    <t xml:space="preserve">---&gt;</t>
+    <t xml:space="preserve">-&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">2-Oxoisocaproate</t>
@@ -1597,45 +1597,48 @@
     <t xml:space="preserve">Phenylacetyl-CoA</t>
   </si>
   <si>
+    <t xml:space="preserve">Prephenate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p-Hydroxyphenylpyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alanine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pyruvate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acetylphosphate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reductive:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-Aminovalerate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4-Methyl-2-oxopentanoate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-Hydroxyisocaproate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-hydroxyisocaproyl-CoA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isocaproyl-CoA</t>
+  </si>
+  <si>
     <t xml:space="preserve">p-hydroxyphenylpyruvate</t>
   </si>
   <si>
-    <t xml:space="preserve">4-Hydroxyphenylacetyl-CoA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-OH-phenylacetate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prephenate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">p-Hydroxyphenylpyruvate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reductive:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5-Aminovalerate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acetylphosphate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4-Methyl-2-oxopentanoate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-Hydroxyisocaproate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-hydroxyisocaproyl-CoA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isocaproyl-CoA</t>
-  </si>
-  <si>
     <t xml:space="preserve">Aspartate</t>
   </si>
   <si>
@@ -1648,7 +1651,23 @@
     <t xml:space="preserve">3-Oxopropanoate</t>
   </si>
   <si>
-    <t xml:space="preserve">hexadecenoate</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Octadecanoic acid, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">hexadecenoate</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Glutamate</t>
@@ -1660,13 +1679,26 @@
     <t xml:space="preserve">2-Oxobutyrate</t>
   </si>
   <si>
-    <t xml:space="preserve">Propionyl-CoA</t>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Propionyl-CoA, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Formate</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">O-Acetyl-L-serine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*Several other AA feed into replenishing intermediates in these processes</t>
   </si>
 </sst>
 </file>
@@ -1676,7 +1708,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1716,6 +1748,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1788,7 +1825,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1865,6 +1902,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1878,17 +1919,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="40.47"/>
@@ -2509,7 +2550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -2519,7 +2560,7 @@
       <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="30.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="3" style="0" width="24.73"/>
@@ -11442,7 +11483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -11452,7 +11493,7 @@
       <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="6.01"/>
@@ -12087,25 +12128,29 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="B2:L21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="25.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="7.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="22.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="15" width="3.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="16.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="3.89"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12177,7 +12222,7 @@
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="17" t="s">
         <v>519</v>
       </c>
@@ -12204,7 +12249,7 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="17" t="s">
         <v>226</v>
       </c>
@@ -12251,23 +12296,21 @@
         <v>513</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>526</v>
-      </c>
-      <c r="I7" s="17" t="s">
         <v>352</v>
       </c>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="17" t="s">
-        <v>221</v>
+      <c r="B8" s="0" t="s">
+        <v>526</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="0" t="s">
         <v>527</v>
       </c>
       <c r="E8" s="18" t="s">
@@ -12279,13 +12322,15 @@
       <c r="G8" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="H8" s="17" t="s">
-        <v>362</v>
-      </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="H8" s="0" t="s">
+        <v>529</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>513</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>368</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0"/>
@@ -12294,7 +12339,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="11" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C10" s="16"/>
       <c r="D10" s="4"/>
@@ -12309,13 +12354,13 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="17" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>513</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E11" s="16"/>
       <c r="F11" s="4"/>
@@ -12334,7 +12379,7 @@
         <v>513</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>513</v>
@@ -12384,7 +12429,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="17" t="s">
         <v>226</v>
       </c>
@@ -12394,7 +12439,9 @@
       <c r="D14" s="17" t="s">
         <v>360</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="18" t="s">
+        <v>513</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="16"/>
       <c r="H14" s="4"/>
@@ -12411,7 +12458,7 @@
         <v>513</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>524</v>
+        <v>537</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>513</v>
@@ -12426,81 +12473,77 @@
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="17" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C16" s="18" t="s">
         <v>513</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>513</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G16" s="18" t="s">
         <v>513</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I16" s="18" t="s">
         <v>513</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="K16" s="17" t="s">
-        <v>541</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="K16" s="17"/>
       <c r="L16" s="4"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="17" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>513</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>513</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="G17" s="18" t="s">
         <v>513</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="I17" s="18" t="s">
         <v>513</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>328</v>
-      </c>
-      <c r="K17" s="17" t="s">
-        <v>541</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="K17" s="17"/>
       <c r="L17" s="4"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="17" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>513</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>513</v>
@@ -12511,16 +12554,13 @@
       <c r="G18" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="H18" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="I18" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="J18" s="18" t="s">
+      <c r="H18" s="19" t="s">
+        <v>546</v>
+      </c>
+      <c r="I18" s="18" t="s">
         <v>513</v>
       </c>
-      <c r="K18" s="17" t="s">
+      <c r="J18" s="17" t="s">
         <v>374</v>
       </c>
       <c r="L18" s="4"/>
@@ -12533,7 +12573,7 @@
         <v>513</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>513</v>
@@ -12552,7 +12592,7 @@
       <c r="B20" s="4"/>
       <c r="C20" s="16"/>
       <c r="D20" s="4"/>
-      <c r="E20" s="16"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="4"/>
       <c r="G20" s="16"/>
       <c r="H20" s="4"/>
@@ -12561,12 +12601,10 @@
       <c r="K20" s="4"/>
       <c r="L20" s="4"/>
     </row>
-    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="67.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B21" s="4"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="17" t="s">
-        <v>547</v>
-      </c>
+      <c r="D21" s="17"/>
       <c r="E21" s="16"/>
       <c r="F21" s="4"/>
       <c r="G21" s="16"/>
